--- a/TVHS_Data_test/Result/gen_summary3.xlsx
+++ b/TVHS_Data_test/Result/gen_summary3.xlsx
@@ -649,11 +649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233160704"/>
-        <c:axId val="233162240"/>
+        <c:axId val="245609984"/>
+        <c:axId val="245611520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233160704"/>
+        <c:axId val="245609984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233162240"/>
+        <c:crossAx val="245611520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233162240"/>
+        <c:axId val="245611520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233160704"/>
+        <c:crossAx val="245609984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,11 +1034,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233585280"/>
-        <c:axId val="233599360"/>
+        <c:axId val="246613120"/>
+        <c:axId val="246614656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233585280"/>
+        <c:axId val="246613120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233599360"/>
+        <c:crossAx val="246614656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1055,7 +1055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233599360"/>
+        <c:axId val="246614656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233585280"/>
+        <c:crossAx val="246613120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3414,8 +3414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:AA45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,9 +3463,12 @@
     <col min="41" max="41" width="9.28515625" customWidth="1"/>
     <col min="42" max="42" width="13.140625" customWidth="1"/>
     <col min="43" max="43" width="8.42578125" customWidth="1"/>
+    <col min="44" max="44" width="11" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="9.28515625" customWidth="1"/>
+    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="7.5703125" customWidth="1"/>
     <col min="49" max="49" width="10.5703125" customWidth="1"/>
+    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
